--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Beginning steps:</t>
   </si>
@@ -31,14 +31,1463 @@
 clone a repository. Gitbash to a directory</t>
   </si>
   <si>
-    <t xml:space="preserve">2. at the local repo, using gitbash &amp; node, install Jasmine </t>
+    <t>npm start</t>
+  </si>
+  <si>
+    <t>skip section ( note the x )</t>
+  </si>
+  <si>
+    <r>
+      <t>run after each</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>run prior to each</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+  </si>
+  <si>
+    <t>compare against expected values</t>
+  </si>
+  <si>
+    <t>skip test ( note the x )</t>
+  </si>
+  <si>
+    <t>STATEMENTS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test tear down. runs once per </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>describe()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> suite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test setup. runs once per </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>describe()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> suite</t>
+    </r>
+  </si>
+  <si>
+    <t>toBe</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <t>toEqual</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toEqual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>});</t>
+    </r>
+  </si>
+  <si>
+    <t>toMatch</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(msg).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/abc/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeDefined</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeDefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeUndefined</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeUndefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeTruthy</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeTruthy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeFalsy</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeFalsy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toContain</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(arr).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeLessThan</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeLessThan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeGreaterThan</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeGreaterThan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeCloseTo</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeCloseTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toThrow</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(fnct).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toThrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toThrowError</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toThrowError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeNull</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeNull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toEqual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(msg).not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/abc/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeUndefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeNull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).not.xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>To invert a matcher value, prepend with .not.</t>
+  </si>
+  <si>
+    <t>HOOKS</t>
+  </si>
+  <si>
+    <t>functions that get called after expect()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MATCHERS/EXPECTATIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>DISABLE suite or test</t>
+  </si>
+  <si>
+    <t>FOCUSED testing, suite or test</t>
+  </si>
+  <si>
+    <r>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( functi­on(){ ... })</t>
+    </r>
+  </si>
+  <si>
+    <t>spyOn</t>
+  </si>
+  <si>
+    <t>at your local directory
+install node, install tslint, install jasmine, install angular-mocks,
+typescript typings</t>
+  </si>
+  <si>
+    <t>npm install
+npm install tslint typescript -g
+npm install -g jasmine
+npm install angular-mocks -g
+npm install @types/angular -g
+npm install typings --global</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for local install instead of global:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+npm install tslint typescript --save-dev
+npm install --save-dev jasmine
+npm install angular-mocks --save -dev
+….</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>ABOUT ARROW FUNCTIONS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   is   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">() = &gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>but the arrow function has the scope of where it is defined, not just the scope of itself</t>
+    </r>
+  </si>
+  <si>
+    <t>npm script to run locally installed packages, start transpiling</t>
+  </si>
+  <si>
+    <t>http://localhost:8042/ in browser to run the app</t>
+  </si>
+  <si>
+    <r>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( description, () =&gt;{ ... })</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( description, () =&gt;{ ... })                       
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beforeAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(() =&gt;{ … })</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>afterAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(() =&gt;{ … })</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beforeEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(() =&gt;{ ... })</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>afterEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>(() =&gt; { ... })</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xdescribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( () =&gt;{ ... })
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>xit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( description, functi­on(){ ... })</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fdescribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( () =&gt;{ ... })
+</t>
+    </r>
+  </si>
+  <si>
+    <t>individual test/spec</t>
+  </si>
+  <si>
+    <t>suite of tests/specs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -52,16 +1501,172 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -69,28 +1674,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF9933"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4460875</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="206375" y="9485313"/>
+          <a:ext cx="11136313" cy="45450127"/>
+          <a:chOff x="15875" y="4318000"/>
+          <a:chExt cx="6210980" cy="27082750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="63502" y="4318000"/>
+            <a:ext cx="6153810" cy="11057362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="31750" y="15382875"/>
+            <a:ext cx="6175375" cy="10378964"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15875" y="25733375"/>
+            <a:ext cx="6210980" cy="5667375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1087437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>239148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15081249" y="31749"/>
+          <a:ext cx="5762625" cy="3160149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21002624" y="47625"/>
+          <a:ext cx="5540375" cy="3161572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,25 +2260,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -408,15 +2295,298 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
+      <c r="D27" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="7"/>
+      <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="D29" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="7"/>
+      <c r="D30" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Beginning steps:</t>
   </si>
@@ -115,9 +115,6 @@
     </r>
   </si>
   <si>
-    <t>compare against expected values</t>
-  </si>
-  <si>
     <t>skip test ( note the x )</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
     <t>toBe</t>
   </si>
   <si>
+    <t>toEqual</t>
+  </si>
+  <si>
+    <t>toMatch</t>
+  </si>
+  <si>
     <r>
       <t>expect</t>
     </r>
@@ -185,6 +188,118 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>(msg).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/abc/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeDefined</t>
+  </si>
+  <si>
+    <t>toBeUndefined</t>
+  </si>
+  <si>
+    <t>toBeTruthy</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeTruthy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeFalsy</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>(obj).</t>
     </r>
     <r>
@@ -194,7 +309,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>toBe</t>
+      <t>toBeFalsy</t>
     </r>
     <r>
       <rPr>
@@ -203,6 +318,58 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toContain</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(arr).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeLessThan</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -212,7 +379,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>null</t>
+      <t>21</t>
     </r>
     <r>
       <rPr>
@@ -221,8 +388,61 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeLessThan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>);</t>
     </r>
+  </si>
+  <si>
+    <t>toBeGreaterThan</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -230,11 +450,56 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <t>toEqual</t>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeGreaterThan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toBeCloseTo</t>
   </si>
   <si>
     <r>
@@ -247,6 +512,130 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeCloseTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>toThrow</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(fnct).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toThrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>toThrowError</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>(obj).</t>
     </r>
     <r>
@@ -256,7 +645,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>toEqual</t>
+      <t>toThrowError</t>
     </r>
     <r>
       <rPr>
@@ -265,626 +654,11 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>({id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFD73A49"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>});</t>
-    </r>
-  </si>
-  <si>
-    <t>toMatch</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(msg).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toMatch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/abc/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeDefined</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(obj).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeDefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>();</t>
     </r>
   </si>
   <si>
-    <t>toBeUndefined</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(obj).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeUndefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeTruthy</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'a'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeTruthy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeFalsy</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(obj).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeFalsy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toContain</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(arr).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toContain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeLessThan</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeLessThan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeGreaterThan</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeGreaterThan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>toBeCloseTo</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeCloseTo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>toThrow</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(fnct).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toThrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toThrowError</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(obj).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toThrowError</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
     <t>toBeNull</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(obj).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toBeNull</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
   </si>
   <si>
     <t>not</t>
@@ -1480,14 +1254,590 @@
     <t>individual test/spec</t>
   </si>
   <si>
-    <t>suite of tests/specs</t>
+    <t>importing alias</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$rootScope is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>constructor variable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">controller service from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Angular</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eventNames is the other </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> param we need</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$rootScope is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> param we need </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MasterController is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>class,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> need its params</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">angular </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mock module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>angular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> injector service</t>
+    </r>
+  </si>
+  <si>
+    <t>instantiate controller</t>
+  </si>
+  <si>
+    <t>instantiating sut</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">beforeEach( () =&gt; ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>run prior to each it in the describe</t>
+    </r>
+  </si>
+  <si>
+    <t>compare against expected values (assert)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toBeDefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(expectationFailOutput)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toBeNull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(expectationFailOutput)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeNull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(expectationFailOutput);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toEqual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any, expectationFailOutput?);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeDefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(expectationFailOutput?);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBeUndefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(expectationFailOutput?);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toBe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(any, expectationFailOutput)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toBe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any, expectationFailOutput?);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>suite of tests, what we're testing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt; describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( description, () =&gt;{ ... }) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>suite of tests/specs, what we are testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">result to expect -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (obj).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toEqual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(any)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  test/spec-&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( description, () =&gt;{ ... })                       
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Here we're testing everting under MasterController class</t>
+  </si>
+  <si>
+    <t>masterController.ts</t>
+  </si>
+  <si>
+    <t>masterControllerSpec.ts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1633,6 +1983,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF9933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1708,7 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1772,6 +2146,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1781,9 +2167,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FFFF9933"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1799,15 +2185,90 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4460875</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:colOff>4476749</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>173799</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="Group 71"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="14519193"/>
+          <a:ext cx="11350624" cy="19309606"/>
+          <a:chOff x="0" y="14519193"/>
+          <a:chExt cx="11350624" cy="19134981"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="14519193"/>
+            <a:ext cx="11331575" cy="4923333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="Picture 70"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="19399249"/>
+            <a:ext cx="11350624" cy="14254925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>658812</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>134940</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1816,8 +2277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="206375" y="9485313"/>
-          <a:ext cx="11136313" cy="45450127"/>
+          <a:off x="35528249" y="10326688"/>
+          <a:ext cx="11136313" cy="45751752"/>
           <a:chOff x="15875" y="4318000"/>
           <a:chExt cx="6210980" cy="27082750"/>
         </a:xfrm>
@@ -1830,7 +2291,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1853,7 +2314,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1876,7 +2337,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1915,7 +2376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1953,7 +2414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1962,6 +2423,1632 @@
         <a:xfrm>
           <a:off x="21002624" y="47625"/>
           <a:ext cx="5540375" cy="3161572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1451427</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="10801351"/>
+          <a:ext cx="8595177" cy="14116050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4267200" y="15868650"/>
+          <a:ext cx="13487400" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="13693775"/>
+          <a:ext cx="14525625" cy="2101850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4514850" y="15982950"/>
+          <a:ext cx="13201650" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4152900" y="16021050"/>
+          <a:ext cx="17221200" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>44452</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1571625" y="15986125"/>
+          <a:ext cx="708025" cy="1917702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>174627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1778000" y="16208377"/>
+          <a:ext cx="571500" cy="1539873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2778126</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3381375</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2778126" y="16811626"/>
+          <a:ext cx="603249" cy="1587499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2381251</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2968625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2381251" y="16589376"/>
+          <a:ext cx="587374" cy="1682749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2111376</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>177720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2111376" y="16417845"/>
+          <a:ext cx="555624" cy="1727280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1390652</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1936750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1390652" y="15836900"/>
+          <a:ext cx="546098" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2587625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Elbow Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2587625" y="18161000"/>
+          <a:ext cx="3937000" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1613"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2841625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4445000" y="16303625"/>
+          <a:ext cx="14446250" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>25319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4826000" y="13938250"/>
+          <a:ext cx="14890750" cy="6232444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4079875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>15878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10953750" y="18827753"/>
+          <a:ext cx="6191250" cy="2127247"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4206874</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Right Brace 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8302624" y="20732750"/>
+          <a:ext cx="2778125" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 12727"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4381500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Right Brace 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8270875" y="22653624"/>
+          <a:ext cx="2984500" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 54167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4381500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>105175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11255375" y="19065875"/>
+          <a:ext cx="5953125" cy="4232675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Right Brace 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8207375" y="23987125"/>
+          <a:ext cx="4333875" cy="3651250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1063625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4635501</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12430125" y="21685250"/>
+          <a:ext cx="3571876" cy="4222751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4635501</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1063626</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Left Brace 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16002001" y="19415125"/>
+          <a:ext cx="1111250" cy="4413250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5032375" y="12398375"/>
+          <a:ext cx="12827000" cy="9223375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1222375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5175250" y="12731750"/>
+          <a:ext cx="12684125" cy="9318626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Elbow Connector 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3619500" y="13700125"/>
+          <a:ext cx="13938250" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351265</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24558625" y="27701875"/>
+          <a:ext cx="7653765" cy="5794375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2968625</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Curved Connector 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3968750" y="17700624"/>
+          <a:ext cx="15875000" cy="11795125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2746375</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Curved Connector 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4175125" y="17097375"/>
+          <a:ext cx="15446375" cy="11287125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 91932"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524124</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365325</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13890624" y="27670125"/>
+          <a:ext cx="10477701" cy="4349750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587376</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3889376</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>57067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Curved Connector 115"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3281404" y="13355596"/>
+          <a:ext cx="18741943" cy="16224250"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 112765"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2682875</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2079625</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682875" y="31289625"/>
+          <a:ext cx="3349625" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3921125</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1793875</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3921125" y="32067500"/>
+          <a:ext cx="1825625" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3873500</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2492375</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3873500" y="32353250"/>
+          <a:ext cx="2571750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5064125" y="31940500"/>
+          <a:ext cx="1508125" cy="1127125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4429125</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>103178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555625" y="34004250"/>
+          <a:ext cx="10747375" cy="7373928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2271,7 +4358,7 @@
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="65.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" customWidth="1"/>
   </cols>
@@ -2281,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -2299,22 +4386,22 @@
     </row>
     <row r="3" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2324,7 +4411,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -2335,7 +4422,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="11"/>
       <c r="F7" s="7"/>
@@ -2343,10 +4430,10 @@
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="7"/>
@@ -2354,230 +4441,341 @@
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D71" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D74" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D76" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D91" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D101" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D102" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D158" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>Beginning steps:</t>
   </si>
@@ -1254,9 +1254,6 @@
     <t>individual test/spec</t>
   </si>
   <si>
-    <t>importing alias</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -1831,6 +1828,311 @@
   </si>
   <si>
     <t>masterControllerSpec.ts</t>
+  </si>
+  <si>
+    <t>stop runningg tests/specs after a failure , or not</t>
+  </si>
+  <si>
+    <t>so we can't test a state change or return value</t>
+  </si>
+  <si>
+    <t>we have to test the interaction with the broadcast function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we have to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPYON</t>
+    </r>
+  </si>
+  <si>
+    <t>throwSomething and feedTheDog functions broadcasting the event</t>
+  </si>
+  <si>
+    <t>spy on a method</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyOn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( obj, method_string )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toHaveBeenCalle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d();</t>
+    </r>
+  </si>
+  <si>
+    <t>veriy the method was called</t>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not.toHaveBeenCalled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>verify the method was called with specific arguments</t>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toHaveBeenCalledWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>array of arguments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">toHaveBeenCalledTimes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>number );</t>
+    </r>
+  </si>
+  <si>
+    <t>veriy the method was called a number of times</t>
+  </si>
+  <si>
+    <t>the run with pending functions</t>
+  </si>
+  <si>
+    <t>INSERT A COLLAPSED VERSION AT THE END</t>
+  </si>
+  <si>
+    <t>spyOn can intercept sensitive data before the object gets it</t>
+  </si>
+  <si>
+    <t>importing alias, using the namespace dogsrus.virtdog</t>
+  </si>
+  <si>
+    <t>this describe describes the methods that are broadcasting events</t>
+  </si>
+  <si>
+    <t>creating beforeEach()</t>
+  </si>
+  <si>
+    <t>we are spying on $rootScope</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting up our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SPY: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">creating an object </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'broadcast' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to send with our broadcast, it will be passed to the broadCast call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calling the throwSomething method , passing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <t>we want to know we broadcasted the right event (masterThrow..) and the right object</t>
+  </si>
+  <si>
+    <t>you have to have this running for Jasmine to run properly</t>
+  </si>
+  <si>
+    <t>Run after broadcast tests have been implemented in Module 4 (mocking with Jasmine)</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2149,15 +2451,26 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2167,8 +2480,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFF9933"/>
-      <color rgb="FFFFCC99"/>
       <color rgb="FFFFCC00"/>
     </mruColors>
   </colors>
@@ -2182,6 +2495,120 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476281</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33115250"/>
+          <a:ext cx="11350156" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4461913</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28051125"/>
+          <a:ext cx="11335788" cy="5175250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476751</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19415125"/>
+          <a:ext cx="11350626" cy="8890000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2191,70 +2618,33 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4476749</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>173799</xdr:rowOff>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>92291</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="Group 71"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14519193"/>
-          <a:ext cx="11350624" cy="19309606"/>
-          <a:chOff x="0" y="14519193"/>
-          <a:chExt cx="11350624" cy="19134981"/>
+          <a:off x="0" y="14439818"/>
+          <a:ext cx="11331575" cy="4972348"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="14519193"/>
-            <a:ext cx="11331575" cy="4923333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="Picture 70"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="19399249"/>
-            <a:ext cx="11350624" cy="14254925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2267,7 +2657,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>658812</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>134940</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2277,8 +2667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35528249" y="10326688"/>
-          <a:ext cx="11136313" cy="45751752"/>
+          <a:off x="39592249" y="10247313"/>
+          <a:ext cx="11136313" cy="56880127"/>
           <a:chOff x="15875" y="4318000"/>
           <a:chExt cx="6210980" cy="27082750"/>
         </a:xfrm>
@@ -2291,7 +2681,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2314,7 +2704,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2337,7 +2727,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2363,8 +2753,8 @@
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1087437</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>239148</xdr:rowOff>
     </xdr:to>
@@ -2376,7 +2766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2414,7 +2804,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2439,10 +2829,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1451427</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2467427</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:rowOff>73026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2452,7 +2842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2618,13 +3008,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4492625</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2633,8 +3023,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4152900" y="16021050"/>
-          <a:ext cx="17221200" cy="704850"/>
+          <a:off x="4143375" y="15986125"/>
+          <a:ext cx="17224375" cy="758826"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3601,56 +3991,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>351265</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24558625" y="27701875"/>
-          <a:ext cx="7653765" cy="5794375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:rowOff>31748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2968625</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>2968626</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3659,12 +4011,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3968750" y="17700624"/>
-          <a:ext cx="15875000" cy="11795125"/>
+          <a:off x="4206876" y="17621248"/>
+          <a:ext cx="15636875" cy="13811251"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1800"/>
+            <a:gd name="adj1" fmla="val -2690"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3674,13 +4026,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3692,15 +4044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2746375</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3709,12 +4061,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4175125" y="17097375"/>
-          <a:ext cx="15446375" cy="11287125"/>
+          <a:off x="4365625" y="17018000"/>
+          <a:ext cx="15255875" cy="12684125"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 91932"/>
+            <a:gd name="adj1" fmla="val 99116"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3724,13 +4076,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3741,34 +4093,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2524124</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365325</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3873500</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>166678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114"/>
+        <xdr:cNvPr id="133" name="Picture 132"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13890624" y="27670125"/>
-          <a:ext cx="10477701" cy="4349750"/>
+          <a:off x="0" y="34194750"/>
+          <a:ext cx="10747375" cy="7373928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56809</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8699500" y="35306000"/>
+          <a:ext cx="2723809" cy="1400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3779,46 +4169,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>587376</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1603375</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3889376</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>57067</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2730500</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Curved Connector 115"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3281404" y="13355596"/>
-          <a:ext cx="18741943" cy="16224250"/>
+        <a:xfrm>
+          <a:off x="1603375" y="44307125"/>
+          <a:ext cx="1127125" cy="1746250"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 112765"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3830,25 +4217,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2682875</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>1873250</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2079625</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="Straight Arrow Connector 121"/>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2682875" y="31289625"/>
-          <a:ext cx="3349625" cy="587375"/>
+          <a:off x="1873250" y="33988375"/>
+          <a:ext cx="3937000" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3878,25 +4265,121 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3921125</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3619500" y="34607500"/>
+          <a:ext cx="1825625" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3571875" y="34893250"/>
+          <a:ext cx="2571750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1793875</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>2317751</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3921125" y="32067500"/>
-          <a:ext cx="1825625" cy="381000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4762500" y="34480500"/>
+          <a:ext cx="1508126" cy="1127125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3926,31 +4409,561 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3873500</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>3016251</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2492375</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1920877</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Curved Connector 115"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="166687" y="14835188"/>
+          <a:ext cx="21478879" cy="15779751"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1301750</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>218864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37195125"/>
+          <a:ext cx="8175625" cy="4362239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3831684</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>75750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10874375" y="37814250"/>
+          <a:ext cx="4323809" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2682875</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4238624</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="37703126"/>
+          <a:ext cx="1555749" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STUB:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>provides a value </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to the test subject</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10588625" y="39211251"/>
+          <a:ext cx="1317625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MOCK: gets called by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the test subject</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381126</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524126</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12747626" y="40274875"/>
+          <a:ext cx="1143000" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>test subject</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2111376</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2520808</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477876" y="38433376"/>
+          <a:ext cx="409432" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2016125</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="38179375"/>
+          <a:ext cx="508000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3794125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
+        <xdr:cNvPr id="56" name="Curved Connector 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3873500" y="32353250"/>
-          <a:ext cx="2571750" cy="666750"/>
+          <a:off x="3794125" y="17287875"/>
+          <a:ext cx="15509875" cy="12049125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3206750</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206750" y="29098875"/>
+          <a:ext cx="1381125" cy="984250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -3973,32 +4986,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2825750</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5064125" y="31940500"/>
-          <a:ext cx="1508125" cy="1127125"/>
+        <a:xfrm>
+          <a:off x="2825750" y="29083000"/>
+          <a:ext cx="1381125" cy="2873375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -4021,34 +5033,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4429125</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>103178</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186659</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPr id="82" name="Picture 81"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="555625" y="34004250"/>
-          <a:ext cx="10747375" cy="7373928"/>
+          <a:off x="16875125" y="42608500"/>
+          <a:ext cx="10870534" cy="7254875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4347,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4359,8 +5371,10 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
     <col min="4" max="4" width="82.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="91.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4406,6 +5420,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
@@ -4433,7 +5450,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="7"/>
@@ -4453,7 +5470,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>44</v>
@@ -4464,13 +5481,22 @@
       <c r="E10" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,10 +5507,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -4497,8 +5529,14 @@
       <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -4509,10 +5547,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
@@ -4523,7 +5567,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,6 +5589,7 @@
       <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
@@ -4547,6 +5598,7 @@
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -4558,6 +5610,7 @@
       <c r="D18" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -4572,6 +5625,7 @@
       <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -4586,6 +5640,7 @@
       <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
@@ -4594,6 +5649,7 @@
       <c r="D21" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -4605,6 +5661,7 @@
       <c r="D22" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -4616,6 +5673,7 @@
       <c r="D23" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="E23" s="29"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4626,15 +5684,16 @@
         <v>34</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="8"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
@@ -4643,141 +5702,288 @@
       <c r="D26" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="30"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="28" t="s">
-        <v>93</v>
+      <c r="E43" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D63" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" s="7" t="s">
+    <row r="70" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="7" t="s">
+    <row r="71" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D71" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="7" t="s">
+    <row r="72" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D74" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="7" t="s">
+    <row r="76" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D76" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="7" t="s">
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="7" t="s">
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="G79" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D80" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="27" t="s">
-        <v>92</v>
+      <c r="D88" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D102" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D136" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D138" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D139" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D140" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D143" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D144" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D145" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D153" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D154" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E200" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" ht="240" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>

--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Beginning steps:</t>
   </si>
@@ -310,41 +310,6 @@
         <family val="3"/>
       </rPr>
       <t>toBeFalsy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toContain</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(arr).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toContain</t>
     </r>
     <r>
       <rPr>
@@ -1881,6 +1846,9 @@
     </r>
   </si>
   <si>
+    <t>veriy the method was called</t>
+  </si>
+  <si>
     <r>
       <t>expect(obj.method).</t>
     </r>
@@ -1892,20 +1860,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>toHaveBeenCalle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d();</t>
-    </r>
-  </si>
-  <si>
-    <t>veriy the method was called</t>
+      <t>not.toHaveBeenCalled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>verify the method was called with specific arguments</t>
   </si>
   <si>
     <r>
@@ -1919,7 +1890,400 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>not.toHaveBeenCalled</t>
+      <t>toHaveBeenCalledWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>array of arguments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">toHaveBeenCalledTimes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>number );</t>
+    </r>
+  </si>
+  <si>
+    <t>veriy the method was called a number of times</t>
+  </si>
+  <si>
+    <t>the run with pending functions</t>
+  </si>
+  <si>
+    <t>INSERT A COLLAPSED VERSION AT THE END</t>
+  </si>
+  <si>
+    <t>spyOn can intercept sensitive data before the object gets it</t>
+  </si>
+  <si>
+    <t>importing alias, using the namespace dogsrus.virtdog</t>
+  </si>
+  <si>
+    <t>this describe describes the methods that are broadcasting events</t>
+  </si>
+  <si>
+    <t>creating beforeEach()</t>
+  </si>
+  <si>
+    <t>we are spying on $rootScope</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting up our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SPY: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">creating an object </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'broadcast' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to send with our broadcast, it will be passed to the broadCast call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calling the throwSomething method , passing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <t>we want to know we broadcasted the right event (masterThrow..) and the right object</t>
+  </si>
+  <si>
+    <t>you have to have this running for Jasmine to run properly</t>
+  </si>
+  <si>
+    <t>Run after broadcast tests have been implemented in Module 4 (mocking with Jasmine)</t>
+  </si>
+  <si>
+    <t>dogControllerSpec.ts</t>
+  </si>
+  <si>
+    <t>create spy object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyObj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jasmine.createSpyOb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyObj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', ['method1', 'method2']);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var spyObj =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jasmine.createSpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>('spyObj')</t>
+    </r>
+  </si>
+  <si>
+    <t>standalone spy object</t>
+  </si>
+  <si>
+    <t>create spy object with multiple spy functions, each method in the array has a spy</t>
+  </si>
+  <si>
+    <t>blogContent is a public variable from dogController.ts &gt; DogController class</t>
+  </si>
+  <si>
+    <t>toContain (find an item in an array)</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(array).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any);</t>
+    </r>
+  </si>
+  <si>
+    <t>find an item in an array</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(array).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting the return value with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;jasmine.spy&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toHaveBeenCalled</t>
     </r>
     <r>
       <rPr>
@@ -1930,216 +2294,13 @@
       </rPr>
       <t>();</t>
     </r>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>verify the method was called with specific arguments</t>
-  </si>
-  <si>
-    <r>
-      <t>expect(obj.method).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>toHaveBeenCalledWith</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>array of arguments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>expect(obj.method).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">toHaveBeenCalledTimes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>number );</t>
-    </r>
-  </si>
-  <si>
-    <t>veriy the method was called a number of times</t>
-  </si>
-  <si>
-    <t>the run with pending functions</t>
-  </si>
-  <si>
-    <t>INSERT A COLLAPSED VERSION AT THE END</t>
-  </si>
-  <si>
-    <t>spyOn can intercept sensitive data before the object gets it</t>
-  </si>
-  <si>
-    <t>importing alias, using the namespace dogsrus.virtdog</t>
-  </si>
-  <si>
-    <t>this describe describes the methods that are broadcasting events</t>
-  </si>
-  <si>
-    <t>creating beforeEach()</t>
-  </si>
-  <si>
-    <t>we are spying on $rootScope</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">setting up our </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SPY: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">creating an object </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'broadcast' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>to send with our broadcast, it will be passed to the broadCast call</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">setting our </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>broadcast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> object</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">calling the throwSomething method , passing the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>broadcast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> object</t>
-    </r>
-  </si>
-  <si>
-    <t>we want to know we broadcasted the right event (masterThrow..) and the right object</t>
-  </si>
-  <si>
-    <t>you have to have this running for Jasmine to run properly</t>
-  </si>
-  <si>
-    <t>Run after broadcast tests have been implemented in Module 4 (mocking with Jasmine)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2308,6 +2469,13 @@
       <color rgb="FFFF9933"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2647,104 +2815,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>658812</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>134940</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="39592249" y="10247313"/>
-          <a:ext cx="11136313" cy="56880127"/>
-          <a:chOff x="15875" y="4318000"/>
-          <a:chExt cx="6210980" cy="27082750"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="63502" y="4318000"/>
-            <a:ext cx="6153810" cy="11057362"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="31750" y="15382875"/>
-            <a:ext cx="6175375" cy="10378964"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15875" y="25733375"/>
-            <a:ext cx="6210980" cy="5667375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2766,7 +2836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2804,7 +2874,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2842,7 +2912,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4112,7 +4182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4150,7 +4220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4477,7 +4547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4515,7 +4585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4801,7 +4871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5052,7 +5122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5061,6 +5131,82 @@
         <a:xfrm>
           <a:off x="16875125" y="42608500"/>
           <a:ext cx="10870534" cy="7254875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>35302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476749</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>69185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="54264302"/>
+          <a:ext cx="11350624" cy="7352258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4460875</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>155077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61610875"/>
+          <a:ext cx="11334750" cy="5822452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5359,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5370,7 +5516,7 @@
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="85.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="91.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
@@ -5382,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -5400,35 +5546,35 @@
     </row>
     <row r="3" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -5447,10 +5593,10 @@
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="7"/>
@@ -5458,31 +5604,31 @@
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5490,35 +5636,35 @@
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -5530,15 +5676,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -5547,18 +5693,18 @@
         <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>7</v>
@@ -5567,18 +5713,18 @@
         <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>6</v>
@@ -5598,137 +5744,148 @@
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="29"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="29"/>
     </row>
@@ -5740,198 +5897,198 @@
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D63" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D69" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D70" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D71" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D72" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D73" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D74" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D76" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D77" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D78" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D79" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D80" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D102" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D136" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D138" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D139" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D140" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D143" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D144" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D153" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D154" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5939,7 +6096,7 @@
     <row r="171" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5970,20 +6127,62 @@
     <row r="198" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E200" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" ht="240" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D256" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D260" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D261" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D265" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D298" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E298" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>

--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Beginning steps:</t>
   </si>
@@ -310,41 +310,6 @@
         <family val="3"/>
       </rPr>
       <t>toBeFalsy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>toContain</t>
-  </si>
-  <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(arr).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toContain</t>
     </r>
     <r>
       <rPr>
@@ -1254,9 +1219,6 @@
     <t>individual test/spec</t>
   </si>
   <si>
-    <t>importing alias</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -1831,13 +1793,514 @@
   </si>
   <si>
     <t>masterControllerSpec.ts</t>
+  </si>
+  <si>
+    <t>stop runningg tests/specs after a failure , or not</t>
+  </si>
+  <si>
+    <t>so we can't test a state change or return value</t>
+  </si>
+  <si>
+    <t>we have to test the interaction with the broadcast function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we have to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPYON</t>
+    </r>
+  </si>
+  <si>
+    <t>throwSomething and feedTheDog functions broadcasting the event</t>
+  </si>
+  <si>
+    <t>spy on a method</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyOn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( obj, method_string )</t>
+    </r>
+  </si>
+  <si>
+    <t>veriy the method was called</t>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not.toHaveBeenCalled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>verify the method was called with specific arguments</t>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toHaveBeenCalledWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>array of arguments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">toHaveBeenCalledTimes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>number );</t>
+    </r>
+  </si>
+  <si>
+    <t>veriy the method was called a number of times</t>
+  </si>
+  <si>
+    <t>the run with pending functions</t>
+  </si>
+  <si>
+    <t>INSERT A COLLAPSED VERSION AT THE END</t>
+  </si>
+  <si>
+    <t>spyOn can intercept sensitive data before the object gets it</t>
+  </si>
+  <si>
+    <t>importing alias, using the namespace dogsrus.virtdog</t>
+  </si>
+  <si>
+    <t>this describe describes the methods that are broadcasting events</t>
+  </si>
+  <si>
+    <t>creating beforeEach()</t>
+  </si>
+  <si>
+    <t>we are spying on $rootScope</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting up our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SPY: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">creating an object </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'broadcast' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to send with our broadcast, it will be passed to the broadCast call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calling the throwSomething method , passing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
+    </r>
+  </si>
+  <si>
+    <t>we want to know we broadcasted the right event (masterThrow..) and the right object</t>
+  </si>
+  <si>
+    <t>you have to have this running for Jasmine to run properly</t>
+  </si>
+  <si>
+    <t>Run after broadcast tests have been implemented in Module 4 (mocking with Jasmine)</t>
+  </si>
+  <si>
+    <t>dogControllerSpec.ts</t>
+  </si>
+  <si>
+    <t>create spy object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyObj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jasmine.createSpyOb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spyObj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', ['method1', 'method2']);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var spyObj =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jasmine.createSpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>('spyObj')</t>
+    </r>
+  </si>
+  <si>
+    <t>standalone spy object</t>
+  </si>
+  <si>
+    <t>create spy object with multiple spy functions, each method in the array has a spy</t>
+  </si>
+  <si>
+    <t>blogContent is a public variable from dogController.ts &gt; DogController class</t>
+  </si>
+  <si>
+    <t>toContain (find an item in an array)</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(array).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any);</t>
+    </r>
+  </si>
+  <si>
+    <t>find an item in an array</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(array).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toContain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(any);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">setting the return value with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;jasmine.spy&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect(obj.method).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toHaveBeenCalled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>();</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2007,6 +2470,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2082,7 +2552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2149,15 +2619,26 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2167,8 +2648,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFF9933"/>
-      <color rgb="FFFFCC99"/>
       <color rgb="FFFFCC00"/>
     </mruColors>
   </colors>
@@ -2182,6 +2663,120 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476281</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33115250"/>
+          <a:ext cx="11350156" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4461913</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28051125"/>
+          <a:ext cx="11335788" cy="5175250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476751</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19415125"/>
+          <a:ext cx="11350626" cy="8890000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2191,168 +2786,33 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4476749</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>173799</xdr:rowOff>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>92291</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="Group 71"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14519193"/>
-          <a:ext cx="11350624" cy="19309606"/>
-          <a:chOff x="0" y="14519193"/>
-          <a:chExt cx="11350624" cy="19134981"/>
+          <a:off x="0" y="14439818"/>
+          <a:ext cx="11331575" cy="4972348"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="14519193"/>
-            <a:ext cx="11331575" cy="4923333"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="Picture 70"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="19399249"/>
-            <a:ext cx="11350624" cy="14254925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>658812</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>134940</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="35528249" y="10326688"/>
-          <a:ext cx="11136313" cy="45751752"/>
-          <a:chOff x="15875" y="4318000"/>
-          <a:chExt cx="6210980" cy="27082750"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Picture 1"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="63502" y="4318000"/>
-            <a:ext cx="6153810" cy="11057362"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="31750" y="15382875"/>
-            <a:ext cx="6175375" cy="10378964"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15875" y="25733375"/>
-            <a:ext cx="6210980" cy="5667375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2363,8 +2823,8 @@
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1087437</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>239148</xdr:rowOff>
     </xdr:to>
@@ -2376,7 +2836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2414,7 +2874,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2439,10 +2899,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1451427</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2467427</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:rowOff>73026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2452,7 +2912,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2618,13 +3078,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4492625</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2633,8 +3093,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4152900" y="16021050"/>
-          <a:ext cx="17221200" cy="704850"/>
+          <a:off x="4143375" y="15986125"/>
+          <a:ext cx="17224375" cy="758826"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3601,22 +4061,160 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>31748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2968626</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Curved Connector 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4206876" y="17621248"/>
+          <a:ext cx="15636875" cy="13811251"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2746375</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Curved Connector 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4365625" y="17018000"/>
+          <a:ext cx="15255875" cy="12684125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99116"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>351265</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3873500</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>166678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107"/>
+        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34194750"/>
+          <a:ext cx="10747375" cy="7373928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1825625</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56809</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>3000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3629,8 +4227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24558625" y="27701875"/>
-          <a:ext cx="7653765" cy="5794375"/>
+          <a:off x="8699500" y="35306000"/>
+          <a:ext cx="2723809" cy="1400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3641,184 +4239,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1603375</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2968625</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2730500</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="Curved Connector 109"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3968750" y="17700624"/>
-          <a:ext cx="15875000" cy="11795125"/>
+        <a:xfrm>
+          <a:off x="1603375" y="44307125"/>
+          <a:ext cx="1127125" cy="1746250"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2746375</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Curved Connector 112"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4175125" y="17097375"/>
-          <a:ext cx="15446375" cy="11287125"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 91932"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2524124</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365325</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13890624" y="27670125"/>
-          <a:ext cx="10477701" cy="4349750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>587376</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3889376</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>57067</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Curved Connector 115"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3281404" y="13355596"/>
-          <a:ext cx="18741943" cy="16224250"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 112765"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3830,25 +4287,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2682875</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>1873250</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2079625</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="Straight Arrow Connector 121"/>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2682875" y="31289625"/>
-          <a:ext cx="3349625" cy="587375"/>
+          <a:off x="1873250" y="33988375"/>
+          <a:ext cx="3937000" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3878,25 +4335,121 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3921125</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3619500" y="34607500"/>
+          <a:ext cx="1825625" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3571875" y="34893250"/>
+          <a:ext cx="2571750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1793875</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>2317751</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3921125" y="32067500"/>
-          <a:ext cx="1825625" cy="381000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4762500" y="34480500"/>
+          <a:ext cx="1508126" cy="1127125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3926,31 +4479,561 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3873500</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>3016251</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2492375</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1920877</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Curved Connector 115"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="166687" y="14835188"/>
+          <a:ext cx="21478879" cy="15779751"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1301750</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>218864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37195125"/>
+          <a:ext cx="8175625" cy="4362239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3831684</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>75750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10874375" y="37814250"/>
+          <a:ext cx="4323809" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2682875</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4238624</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="37703126"/>
+          <a:ext cx="1555749" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STUB:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>provides a value </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to the test subject</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10588625" y="39211251"/>
+          <a:ext cx="1317625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MOCK: gets called by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the test subject</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381126</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524126</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12747626" y="40274875"/>
+          <a:ext cx="1143000" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>test subject</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2111376</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2520808</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477876" y="38433376"/>
+          <a:ext cx="409432" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2016125</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="38179375"/>
+          <a:ext cx="508000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3794125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
+        <xdr:cNvPr id="56" name="Curved Connector 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3873500" y="32353250"/>
-          <a:ext cx="2571750" cy="666750"/>
+          <a:off x="3794125" y="17287875"/>
+          <a:ext cx="15509875" cy="12049125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3206750</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206750" y="29098875"/>
+          <a:ext cx="1381125" cy="984250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -3973,32 +5056,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2825750</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5064125" y="31940500"/>
-          <a:ext cx="1508125" cy="1127125"/>
+        <a:xfrm>
+          <a:off x="2825750" y="29083000"/>
+          <a:ext cx="1381125" cy="2873375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -4021,34 +5103,110 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4429125</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>103178</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186659</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPr id="82" name="Picture 81"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="555625" y="34004250"/>
-          <a:ext cx="10747375" cy="7373928"/>
+          <a:off x="16875125" y="42608500"/>
+          <a:ext cx="10870534" cy="7254875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>35302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4476749</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>69185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="54264302"/>
+          <a:ext cx="11350624" cy="7352258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4460875</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>155077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61610875"/>
+          <a:ext cx="11334750" cy="5822452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4347,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4358,9 +5516,11 @@
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="91.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4368,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -4386,32 +5546,35 @@
     </row>
     <row r="3" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -4430,10 +5593,10 @@
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="7"/>
@@ -4441,52 +5604,67 @@
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4497,10 +5675,16 @@
       <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -4509,12 +5693,18 @@
         <v>16</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>7</v>
@@ -4523,12 +5713,18 @@
         <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>6</v>
@@ -4539,6 +5735,7 @@
       <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
@@ -4547,235 +5744,443 @@
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="E17" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E23" s="29"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="26"/>
+        <v>79</v>
+      </c>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="30"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="28" t="s">
-        <v>93</v>
+      <c r="E43" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D63" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D71" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" s="7" t="s">
+    <row r="72" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D74" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="7" t="s">
+    <row r="76" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D76" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="G79" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D80" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="27" t="s">
-        <v>92</v>
+      <c r="D88" s="26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D102" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D136" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D138" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D139" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D140" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D143" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D144" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D145" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D153" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D154" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E200" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="239" ht="240" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D256" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D260" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D261" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D265" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D298" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E298" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/JasmineCheatSheet.xlsx
+++ b/JasmineCheatSheet.xlsx
@@ -178,56 +178,6 @@
     <t>toMatch</t>
   </si>
   <si>
-    <r>
-      <t>expect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(msg).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toMatch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/abc/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
     <t>toBeDefined</t>
   </si>
   <si>
@@ -2293,6 +2243,56 @@
         <family val="2"/>
       </rPr>
       <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(testvalue).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toMatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/abc/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
     </r>
   </si>
 </sst>
@@ -5507,8 +5507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -5546,35 +5546,35 @@
     </row>
     <row r="3" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -5593,10 +5593,10 @@
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="7"/>
@@ -5604,31 +5604,31 @@
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,35 +5636,35 @@
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -5673,219 +5673,219 @@
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
         <v>104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="E18" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="E19" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="29"/>
     </row>
@@ -5897,198 +5897,198 @@
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D63" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D69" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D70" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D71" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D72" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D73" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D74" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D76" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D77" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D78" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="4:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D79" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D80" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D91" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D102" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D136" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D138" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D139" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D140" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D143" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D144" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D153" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D154" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6096,7 +6096,7 @@
     <row r="171" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="4:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6127,41 +6127,41 @@
     <row r="198" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E200" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="239" ht="240" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D256" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E256" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="260" spans="4:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D260" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="261" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D261" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264" spans="4:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -6169,18 +6169,18 @@
     </row>
     <row r="265" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D265" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="298" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D298" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E298" t="s">
         <v>104</v>
-      </c>
-      <c r="E298" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
